--- a/document/record.xlsx
+++ b/document/record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13425"/>
+    <workbookView windowWidth="28695" windowHeight="13680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>题目（文件名）</t>
   </si>
@@ -23,6 +23,40 @@
   </si>
   <si>
     <t>题解（文件头注释）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bz2728.cpp
+lg3220.cpp
+</t>
+  </si>
+  <si>
+    <t>2019.03.07</t>
+  </si>
+  <si>
+    <t>一开始看错题目了，好难，看题解研究代码才搞懂。。。
+这题不要用线性基，却要用到线性基的思想，
+与非可以转换为与和非和或。
+将 n 个数用 log(maxvalue) 个数表示，
+且用这 log 个数部分按位或可以得到原数列部分与非的所有结果。
+其中第 k 个数满足二进制第 k 位为 1 ，二进制大于 k 位都为 0 。
+很像线性基。
+构造方式是通过按位与和非，
+x 对线性基第 k 位的贡献是 &amp;= x (x 第 k 位为 1) 或者 &amp;= ~x （反之），
+举例：
+ 00101
+ 01011
+ 01111
+压缩成（按位与线性基？）：
+ 10000
+ 01010
+ 00100
+ 00000
+ 00001
+然后求 1 ~ r 内的方案数，用数位 DP 的思路去扫一遍线性基。
+若 r 当前这位为 1 ，考虑结果的这一位，
+若为 0 ，则后面不再有限制，随便选，方案是 2^(...) ；
+若为 1 ，则必须选当前线性基这一位，后面继续限制，继续扫即可。
+不得不说这题的代码太精练了，而且有许多需要注意的细节。</t>
   </si>
   <si>
     <t>lg4952.cpp</t>
@@ -98,10 +132,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -156,14 +190,91 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,25 +289,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,25 +303,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,51 +313,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,43 +333,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,133 +489,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,17 +532,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -544,6 +571,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -555,6 +591,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,158 +618,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,7 +768,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -747,13 +781,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1078,13 +1109,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="135" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="135" customHeight="1" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="44" style="1" customWidth="1"/>
     <col min="2" max="2" width="35" style="1" customWidth="1"/>
@@ -1097,40 +1128,40 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
     </row>
-    <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="2" customHeight="1" spans="1:29">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1139,26 +1170,51 @@
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1169,7 +1225,7 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1178,21 +1234,32 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="7" t="s">
         <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/document/record.xlsx
+++ b/document/record.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>题目（文件名）</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>题解（文件头注释）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lg3733.cpp
+loj2312.cpp
+</t>
+  </si>
+  <si>
+    <t>2019.03.10</t>
+  </si>
+  <si>
+    <t>搜线性基跳到了这题，看完题目 WTF 线性基怎么支持删除？
+于是学了一波线段树分治。
+有了线段树分治的话，这题就比较可做了，
+维护思路类似于最大 xor 路径那题。
+细节方面注意 q = 0 的情况，以及为了因对洛谷的垃圾数据要开 2 倍数组</t>
   </si>
   <si>
     <t xml:space="preserve">bz2728.cpp
@@ -132,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -188,46 +203,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,41 +259,69 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,36 +332,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -333,12 +348,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -351,7 +414,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,31 +492,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,48 +510,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -453,61 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,13 +545,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,6 +575,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -567,15 +604,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,24 +625,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,142 +638,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1109,13 +1124,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="135" customHeight="1" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="135" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="44" style="1" customWidth="1"/>
     <col min="2" max="2" width="35" style="1" customWidth="1"/>
@@ -1160,16 +1175,7 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
     </row>
-    <row r="2" customHeight="1" spans="1:29">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" customHeight="1" spans="5:29">
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1196,70 +1202,142 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="1" t="s">
+    <row r="3" customHeight="1" spans="1:29">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:29">
+      <c r="A4" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" customHeight="1" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/document/record.xlsx
+++ b/document/record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13680"/>
+    <workbookView windowWidth="28695" windowHeight="13425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>题目（文件名）</t>
   </si>
@@ -23,14 +23,23 @@
   </si>
   <si>
     <t>题解（文件头注释）</t>
+  </si>
+  <si>
+    <t>lg4570.cpp</t>
+  </si>
+  <si>
+    <t>2019.03.10</t>
+  </si>
+  <si>
+    <t>%%% CZZ 又做过了这题，并且以“一眼”嘲讽我
+将魔法石按魔法值从大到小排序依次尝试插入线性基，
+可以用反证法证明，如果当前点可以插入线性基却不选，
+后面一定不会更优的方案</t>
   </si>
   <si>
     <t xml:space="preserve">lg3733.cpp
 loj2312.cpp
 </t>
-  </si>
-  <si>
-    <t>2019.03.10</t>
   </si>
   <si>
     <t>搜线性基跳到了这题，看完题目 WTF 线性基怎么支持删除？
@@ -147,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -190,7 +199,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,47 +229,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,6 +267,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -266,6 +283,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -273,20 +313,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -295,14 +321,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -317,19 +335,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -342,25 +351,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,13 +423,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,139 +531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,23 +548,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,24 +569,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -604,6 +580,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,11 +627,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,148 +647,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -799,10 +808,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1124,10 +1133,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="135" customHeight="1"/>
@@ -1203,13 +1212,13 @@
       <c r="AC2" s="3"/>
     </row>
     <row r="3" customHeight="1" spans="1:29">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="3"/>
@@ -1239,14 +1248,14 @@
       <c r="AC3" s="3"/>
     </row>
     <row r="4" customHeight="1" spans="1:29">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1274,25 +1283,50 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="1" t="s">
+    <row r="5" customHeight="1" spans="1:29">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1301,31 +1335,31 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1334,10 +1368,21 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="6" t="s">
+    </row>
+    <row r="11" customHeight="1" spans="1:3">
+      <c r="A11" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/document/record.xlsx
+++ b/document/record.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>题目（文件名）</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>题解（文件头注释）</t>
+  </si>
+  <si>
+    <t>lg4317.cpp</t>
+  </si>
+  <si>
+    <t>2019.03.12</t>
+  </si>
+  <si>
+    <t>对于每个 k 统计 sum(x) == k 的个数即可，
+记这个个数是 tot(k) , 那 k 对答案的贡献就是 k^tot(k) ，
+统计的方法枚举 n 的每位，以类似数位 DP 的思路去统计。
+注意 tot 出现在答案的指数，不能取模</t>
   </si>
   <si>
     <t>lg4570.cpp</t>
@@ -199,7 +211,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,47 +317,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,76 +333,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,187 +363,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,8 +560,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,27 +620,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -609,186 +654,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,10 +1145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="135" customHeight="1"/>
@@ -1248,14 +1260,14 @@
       <c r="AC3" s="3"/>
     </row>
     <row r="4" customHeight="1" spans="1:29">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1285,10 +1297,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:29">
       <c r="A5" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
@@ -1319,8 +1331,8 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="1" t="s">
+    <row r="6" customHeight="1" spans="1:29">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1329,26 +1341,51 @@
       <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1368,21 +1405,32 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/document/record.xlsx
+++ b/document/record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13425"/>
+    <workbookView windowWidth="28695" windowHeight="13680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>题目（文件名）</t>
   </si>
@@ -23,6 +23,24 @@
   </si>
   <si>
     <t>题解（文件头注释）</t>
+  </si>
+  <si>
+    <t>bz2844.cpp
+lg4869.cpp</t>
+  </si>
+  <si>
+    <t>2019.03.14</t>
+  </si>
+  <si>
+    <t>Dra 曰：线性基可以维护异或和为 x 的方案数！
+于是推荐给了我这题
+对任意 x ，集合 S 异或和为 x 方案数只能为 0 或 2 ^ (n - k) ，
+其中 n 为 S 大小， k 为 S 线性基的大小。
+口胡证明：
+若 x 是 S 的一个子集的异或和，
+那么 S 的线性基一定有唯一子集的异或和为 x ，
+且 S 中其它未被加入线性基的元素（ n - k 个）任意子集的异或和异或上 x 都能被线性基异或出来。
+有这个结论就用数位 DP 的思路求所有小与 Q 的数中能被异或出来的数量。</t>
   </si>
   <si>
     <t>lg4570.cpp</t>
@@ -156,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -195,6 +213,20 @@
       <color theme="4"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,14 +245,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -229,7 +308,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,15 +339,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,81 +359,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -351,12 +369,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -369,43 +411,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,121 +543,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,8 +566,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,47 +601,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,18 +622,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,148 +665,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -808,10 +826,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1133,10 +1151,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="135" customHeight="1"/>
@@ -1212,13 +1230,13 @@
       <c r="AC2" s="3"/>
     </row>
     <row r="3" customHeight="1" spans="1:29">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="3"/>
@@ -1248,14 +1266,14 @@
       <c r="AC3" s="3"/>
     </row>
     <row r="4" customHeight="1" spans="1:29">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1284,13 +1302,13 @@
       <c r="AC4" s="3"/>
     </row>
     <row r="5" customHeight="1" spans="1:29">
-      <c r="A5" s="6" t="s">
-        <v>8</v>
+      <c r="A5" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3"/>
@@ -1319,36 +1337,61 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="1" t="s">
+    <row r="6" customHeight="1" spans="1:29">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1359,7 +1402,7 @@
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1368,21 +1411,32 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="5" t="s">
         <v>23</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/document/record.xlsx
+++ b/document/record.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>题目（文件名）</t>
   </si>
@@ -23,6 +23,35 @@
   </si>
   <si>
     <t>题解（文件头注释）</t>
+  </si>
+  <si>
+    <t>lg4980.cpp</t>
+  </si>
+  <si>
+    <t>2019.03.18</t>
+  </si>
+  <si>
+    <t>我 Naive 了
+一开始对 polya 定理有误解，把这当成了傻逼题直接打了后调都没调就交。
+这题用 polya 推一推式子，式子上面的那个指数就是 gcd(n, k) ，直接做是 n log 的。
+看式子嘛，有个 gcd(n, k) 那就枚举 g = gcd(n, k) ，提到前面，加个互质条件，
+互质条件转换为莫比乌斯函数，把 d 也往前提，
+然后提出了一个莫比乌斯函数和单位函数的卷积，就是欧拉函数啦。
+然后暴力求出那些欧拉函数（ n 太大了不能筛）
+卧槽这怎么变成了一道数论题
+emm 然而还是 Naive, 我发现我不会暴力求 phi, 抄了份代码才读懂。</t>
+  </si>
+  <si>
+    <t>bz1004.cpp
+lg1446.cpp</t>
+  </si>
+  <si>
+    <t>Burnside 裸题？
+去你大爷的，计算稳定化子还不是得 DP ，
+设 f[b][i][j][k] 表示考虑当前置换的第 b 个循环，
+三种颜色分别为 i, j, k 的方案数。
+置换中的一个循环中的颜色必须一致，根据这个转移。
+卧槽我竟然写完后只改一个地方就 A 了，难得难得。</t>
   </si>
   <si>
     <t>bz2844.cpp
@@ -191,7 +220,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,62 +250,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="4"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,44 +312,68 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,33 +388,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -393,175 +415,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,6 +594,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -594,55 +625,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,90 +655,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,52 +786,52 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -818,11 +840,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -835,13 +857,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1163,10 +1182,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:AC15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="135" customHeight="1"/>
@@ -1185,7 +1204,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3"/>
@@ -1242,13 +1261,13 @@
       <c r="AC2" s="3"/>
     </row>
     <row r="3" customHeight="1" spans="1:29">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="3"/>
@@ -1278,14 +1297,14 @@
       <c r="AC3" s="3"/>
     </row>
     <row r="4" customHeight="1" spans="1:29">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1314,14 +1333,14 @@
       <c r="AC4" s="3"/>
     </row>
     <row r="5" customHeight="1" spans="1:29">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1350,13 +1369,13 @@
       <c r="AC5" s="3"/>
     </row>
     <row r="6" customHeight="1" spans="1:29">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3"/>
@@ -1386,13 +1405,13 @@
       <c r="AC6" s="3"/>
     </row>
     <row r="7" customHeight="1" spans="1:29">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="3"/>
@@ -1421,27 +1440,77 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="1" t="s">
+    <row r="8" customHeight="1" spans="1:29">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:29">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
     </row>
     <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="1" t="s">
@@ -1450,7 +1519,7 @@
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1459,20 +1528,20 @@
         <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1483,8 +1552,30 @@
       <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
